--- a/data/aid.xlsx
+++ b/data/aid.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -681,7 +681,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5">
         <v>250</v>
@@ -707,7 +707,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>

--- a/data/aid.xlsx
+++ b/data/aid.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83944C-5739-DC44-B70A-EE50D049F47E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29820" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Qty</t>
   </si>
@@ -36,9 +42,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Stimpack</t>
-  </si>
-  <si>
     <t>One day's worth of pure water.</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
     <t>One day's worth of healthy, rad-free food.</t>
   </si>
   <si>
-    <t>Inject as an action.  Instantly stabilize if bleeding out, remove one wound level, and recover from Shaken.  Addictive if used without wounds.</t>
-  </si>
-  <si>
     <t>Inject as an action.  For one hour, immediately after becoming Shaken, make a Spirit roll to remove Shaken.  Stacks duration.  Very addictive.</t>
   </si>
   <si>
@@ -88,13 +88,28 @@
   </si>
   <si>
     <t>Inject as an action.  If applied to wound or perminant injury, subject makes vigor roll.  Success causes injury to heal over 1d6 hours.</t>
+  </si>
+  <si>
+    <t>⅒</t>
+  </si>
+  <si>
+    <t>Stimpak</t>
+  </si>
+  <si>
+    <t>Stimpak Refill</t>
+  </si>
+  <si>
+    <t>Contains unpressurized stimpak liquid plus sterile needing.  Reloading and repressurizing a stimpak takes one minute.</t>
+  </si>
+  <si>
+    <t>Inject as an action.  Healing or Common Knowledge check at +2.  Failure removes shaken, success removes shaken and one wound, each raise removes 1 wound per turn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +142,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +190,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,6 +207,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -211,6 +236,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -535,14 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
@@ -551,7 +584,7 @@
     <col min="6" max="6" width="123.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -565,15 +598,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -584,30 +617,33 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -615,22 +651,22 @@
       <c r="C4" s="5">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -639,162 +675,179 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
         <v>21</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="5">
         <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>250</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>250</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>55</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/aid.xlsx
+++ b/data/aid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83944C-5739-DC44-B70A-EE50D049F47E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1D0F32-2051-BF42-815C-5A03E603EEDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29820" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Qty</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Inject as an action.  For two hours, ignore one level of wound penalties, stacks x2.  Addictive.  Very addictive if used without wounds.</t>
   </si>
   <si>
-    <t>Drink as an action.  For one hour: +1 Spirit, -1 Agility, -1 Smarts stacks x2 and then duration.  Hangover: -1 Spirit, -1 Smarts for (2xDose - Vigor) hours.  Addictive.</t>
-  </si>
-  <si>
     <t>Doctor's Bag</t>
   </si>
   <si>
@@ -102,7 +99,16 @@
     <t>Contains unpressurized stimpak liquid plus sterile needing.  Reloading and repressurizing a stimpak takes one minute.</t>
   </si>
   <si>
-    <t>Inject as an action.  Healing or Common Knowledge check at +2.  Failure removes shaken, success removes shaken and one wound, each raise removes 1 wound per turn.</t>
+    <t>Rad Away</t>
+  </si>
+  <si>
+    <t>Inject via IV (1 minute).   For four hours, subject experiences -1 vigor rolls and requires additional day's water.  After four hours, one level of radiation exposure is removed.</t>
+  </si>
+  <si>
+    <t>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</t>
+  </si>
+  <si>
+    <t>Inject as an action. | Healing or Common Knowledge check at +2. | Failure removes shaken, success removes shaken and one wound, each raise removes 1 wound per turn.</t>
   </si>
 </sst>
 </file>
@@ -606,10 +612,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>25</v>
@@ -621,24 +627,24 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -646,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>20</v>
@@ -663,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <v>20</v>
@@ -680,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -697,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -714,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
         <v>10</v>
@@ -726,15 +732,15 @@
         <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
         <v>250</v>
@@ -746,12 +752,12 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -766,7 +772,24 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">

--- a/data/aid.xlsx
+++ b/data/aid.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1D0F32-2051-BF42-815C-5A03E603EEDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7BE44B-051E-1849-9527-3767723DC3B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29820" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Qty</t>
   </si>
@@ -84,9 +90,6 @@
     <t>Hydra</t>
   </si>
   <si>
-    <t>Inject as an action.  If applied to wound or perminant injury, subject makes vigor roll.  Success causes injury to heal over 1d6 hours.</t>
-  </si>
-  <si>
     <t>⅒</t>
   </si>
   <si>
@@ -102,20 +105,104 @@
     <t>Rad Away</t>
   </si>
   <si>
-    <t>Inject via IV (1 minute).   For four hours, subject experiences -1 vigor rolls and requires additional day's water.  After four hours, one level of radiation exposure is removed.</t>
-  </si>
-  <si>
     <t>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</t>
   </si>
   <si>
     <t>Inject as an action. | Healing or Common Knowledge check at +2. | Failure removes shaken, success removes shaken and one wound, each raise removes 1 wound per turn.</t>
+  </si>
+  <si>
+    <t>Rad-X</t>
+  </si>
+  <si>
+    <t>Inject via IV (1 minute).  For four hours, subject experiences -1 vigor rolls and requires additional day's water.  After four hours, one level of radiation exposure is removed.</t>
+  </si>
+  <si>
+    <t>Inject via IV (1 minute).  If applied to wound or perminant injury, subject makes vigor roll, which can be assisted by healing roll.  Success causes injury to heal over 1d6 hours.</t>
+  </si>
+  <si>
+    <t>Bloatfly Meat</t>
+  </si>
+  <si>
+    <t>Buffout</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Cram</t>
+  </si>
+  <si>
+    <t>Dandy Boy Apples</t>
+  </si>
+  <si>
+    <t>Fancy Lad Snack Cakes</t>
+  </si>
+  <si>
+    <t>Mentats</t>
+  </si>
+  <si>
+    <t>Molerat Meat</t>
+  </si>
+  <si>
+    <t>Mutfruit</t>
+  </si>
+  <si>
+    <t>Radroach Meat</t>
+  </si>
+  <si>
+    <t>Radscorpion Steak</t>
+  </si>
+  <si>
+    <t>Sugar Bombs</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>Whiskey</t>
+  </si>
+  <si>
+    <t>Ingest pill as an action.  For 4 hours, gain +1 to Strength and Vigor and all Strength related skills.  After 4 hours, withdrawl causes -1 to Strength and Vigor and all Strength related skills. | Addictive</t>
+  </si>
+  <si>
+    <t>Ingest pill as an action.  For 24 hours, gain +1 to Smarts and all Smarts related skills. | Addictive.</t>
+  </si>
+  <si>
+    <t>Ingest pill as an action.  For four hours, time required to absorb one radiation level is increased one step. [1 Turn / 5 Min / 4 Hour / 1 Week / 1 Year]</t>
+  </si>
+  <si>
+    <t>Nomnom</t>
+  </si>
+  <si>
+    <t>Counts as 1/4 day's food.  Useful cooking ingredient</t>
+  </si>
+  <si>
+    <t>Counts as 1/4's day's food.  Mutated carrots grow large in the south.  Useful cooking ingredient.</t>
+  </si>
+  <si>
+    <t>Salty and bland, but packed with protein.  Counts as one day's food.  Can be eaten raw or further cooked</t>
+  </si>
+  <si>
+    <t>½</t>
+  </si>
+  <si>
+    <t>Requires cooking.  Counts as 1/2 day's food.  Somehow both mushy and stringy.</t>
+  </si>
+  <si>
+    <t>Sticky sugary apples.  Counts as 1/2 day's food.  Not very nutitious but very tasty.</t>
+  </si>
+  <si>
+    <t>Lots of little sugary cakes.  Each dose counts as 1/2 day's food.  Not very nutritious but very tasty.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +240,14 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -196,7 +291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -214,6 +309,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,10 +710,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>25</v>
@@ -627,24 +725,24 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -652,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
         <v>20</v>
@@ -669,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>20</v>
@@ -683,158 +781,423 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>400</v>
       </c>
       <c r="D9" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>80</v>
-      </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>F15</f>
+        <v>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>F15</f>
+        <v>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="D28" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>36</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="D29" s="6"/>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
       <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30" s="6"/>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="D31" s="6"/>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="D32" s="6"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33"/>
-      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -871,6 +1234,21 @@
       <c r="B40"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -880,4 +1258,137 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C14454-01EC-294A-9DCD-054D0EFCF64E}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/aid.xlsx
+++ b/data/aid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7BE44B-051E-1849-9527-3767723DC3B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77899A9B-B21C-7C44-A57D-1073B3A391D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Qty</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Bourbon</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
@@ -72,9 +70,6 @@
     <t>¼</t>
   </si>
   <si>
-    <t>One day's worth of healthy, rad-free food.</t>
-  </si>
-  <si>
     <t>Inject as an action.  For one hour, immediately after becoming Shaken, make a Spirit roll to remove Shaken.  Stacks duration.  Very addictive.</t>
   </si>
   <si>
@@ -174,15 +169,6 @@
     <t>Ingest pill as an action.  For four hours, time required to absorb one radiation level is increased one step. [1 Turn / 5 Min / 4 Hour / 1 Week / 1 Year]</t>
   </si>
   <si>
-    <t>Nomnom</t>
-  </si>
-  <si>
-    <t>Counts as 1/4 day's food.  Useful cooking ingredient</t>
-  </si>
-  <si>
-    <t>Counts as 1/4's day's food.  Mutated carrots grow large in the south.  Useful cooking ingredient.</t>
-  </si>
-  <si>
     <t>Salty and bland, but packed with protein.  Counts as one day's food.  Can be eaten raw or further cooked</t>
   </si>
   <si>
@@ -192,10 +178,31 @@
     <t>Requires cooking.  Counts as 1/2 day's food.  Somehow both mushy and stringy.</t>
   </si>
   <si>
-    <t>Sticky sugary apples.  Counts as 1/2 day's food.  Not very nutitious but very tasty.</t>
-  </si>
-  <si>
-    <t>Lots of little sugary cakes.  Each dose counts as 1/2 day's food.  Not very nutritious but very tasty.</t>
+    <t>Requires cooking.  Counts as 1/2 day's food. Tough meat and very bitter.</t>
+  </si>
+  <si>
+    <t>Requires cooking.  Counts as 1/2 day's food.  Even cooked, has a vile flavor.</t>
+  </si>
+  <si>
+    <t>A sweet and sugary fruit.  Counts as 1/4 day's food.  Sweet and nutritious.</t>
+  </si>
+  <si>
+    <t>Mutated carrots grow large in the south.  Counts as 1/4 day's food.  Bland but nutritious.  Useful cooking ingredient.</t>
+  </si>
+  <si>
+    <t>Years of growing wild has returned color to the kernels.  Counts as 1/4's day's food.  Useful cooking ingredient.</t>
+  </si>
+  <si>
+    <t>A box of of little sugary cakes.  Each serving counts as 1/2 day's food.  Sweet, but not very nutritious.</t>
+  </si>
+  <si>
+    <t>Sticky sugary apples.  Counts as 1/2 day's food.  Sweet, but not very nutritious.</t>
+  </si>
+  <si>
+    <t>A sugary candy.  Each serving counts as 1/2 day's food.  Sweet, but not very nutritious.</t>
+  </si>
+  <si>
+    <t>Requires cooking.  Countts as a full day's food.  Surprisingly smoky flavor.</t>
   </si>
 </sst>
 </file>
@@ -676,7 +683,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +717,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -725,12 +732,12 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -739,15 +746,15 @@
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -756,10 +763,10 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -776,12 +783,12 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -796,12 +803,12 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -816,12 +823,12 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -830,15 +837,15 @@
         <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -853,12 +860,12 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -867,18 +874,18 @@
         <v>1500</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -893,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -904,44 +911,47 @@
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5</v>
-      </c>
       <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>5</v>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
@@ -949,19 +959,20 @@
       <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>24</v>
+      <c r="F15" s="7" t="str">
+        <f>F14</f>
+        <v>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="5">
-        <v>20</v>
+      <c r="C16" s="3">
+        <v>15</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
@@ -970,168 +981,150 @@
         <v>10</v>
       </c>
       <c r="F16" s="7" t="str">
-        <f>F15</f>
+        <f>F14</f>
         <v>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>10</v>
-      </c>
-      <c r="F17" s="7" t="str">
-        <f>F15</f>
-        <v>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>36</v>
+      </c>
+      <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="3">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
       <c r="E23" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>36</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
@@ -1139,116 +1132,94 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>65</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>11</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1272,7 +1243,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3">
         <v>0</v>
@@ -1282,7 +1253,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -1292,7 +1263,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1302,7 +1273,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1312,7 +1283,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1322,7 +1293,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1332,7 +1303,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1342,7 +1313,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1352,7 +1323,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1362,7 +1333,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1372,7 +1343,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>

--- a/data/aid.xlsx
+++ b/data/aid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77899A9B-B21C-7C44-A57D-1073B3A391D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C061A786-0EAA-0E4C-903D-22D6CEF5B82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Qty</t>
   </si>
@@ -175,15 +175,9 @@
     <t>½</t>
   </si>
   <si>
-    <t>Requires cooking.  Counts as 1/2 day's food.  Somehow both mushy and stringy.</t>
-  </si>
-  <si>
     <t>Requires cooking.  Counts as 1/2 day's food. Tough meat and very bitter.</t>
   </si>
   <si>
-    <t>Requires cooking.  Counts as 1/2 day's food.  Even cooked, has a vile flavor.</t>
-  </si>
-  <si>
     <t>A sweet and sugary fruit.  Counts as 1/4 day's food.  Sweet and nutritious.</t>
   </si>
   <si>
@@ -193,16 +187,43 @@
     <t>Years of growing wild has returned color to the kernels.  Counts as 1/4's day's food.  Useful cooking ingredient.</t>
   </si>
   <si>
-    <t>A box of of little sugary cakes.  Each serving counts as 1/2 day's food.  Sweet, but not very nutritious.</t>
-  </si>
-  <si>
-    <t>Sticky sugary apples.  Counts as 1/2 day's food.  Sweet, but not very nutritious.</t>
-  </si>
-  <si>
-    <t>A sugary candy.  Each serving counts as 1/2 day's food.  Sweet, but not very nutritious.</t>
-  </si>
-  <si>
     <t>Requires cooking.  Countts as a full day's food.  Surprisingly smoky flavor.</t>
+  </si>
+  <si>
+    <t>Requires cooking.  Counts as 1/2 day's food.  Somehow both mushy and stringy.  (Roll vigor at +2, on failure, cannot keep food down.)</t>
+  </si>
+  <si>
+    <t>Yao Guai Meat</t>
+  </si>
+  <si>
+    <t>Requires cooking.  Each serving counts as a full day's food.  Gain one reroll to a melee damage roll of your choice.</t>
+  </si>
+  <si>
+    <t>Radstag Meat</t>
+  </si>
+  <si>
+    <t>Requires cooking.  Each serving counts as a full day's food.  For the next four hours, ignore encumberence penalties.</t>
+  </si>
+  <si>
+    <t>Requires cooking.  Each serving counts as a full day's food.  Gain one free soak roll the next time you take a wound.</t>
+  </si>
+  <si>
+    <t>A box of of little sugary cakes.  Each serving counts as 1/2 day's food.  Sweet (one free spirit reroll), but not very nutritious (-1 to vigor unless combined with real food.)</t>
+  </si>
+  <si>
+    <t>Sticky sugary apples.  Counts as 1/2 day's food.  Sweet (one free spirit reroll), but not very nutritious (-1 to vigor unless combined with real food.)</t>
+  </si>
+  <si>
+    <t>A sugary candy.  Each serving counts as 1/2 day's food.  Sweet (one free spirit reroll), but not very nutritious (-1 to vigor unless combined with real food.)</t>
+  </si>
+  <si>
+    <t>Requires cooking.  Counts as 1/2 day's food.  Even cooked, has a vile flavor.  (Roll vigor at +2, on failure, cannot keep food down.)</t>
+  </si>
+  <si>
+    <t>Yao Guai Ribs</t>
+  </si>
+  <si>
+    <t>Fancy Lads</t>
   </si>
 </sst>
 </file>
@@ -683,7 +704,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -999,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1016,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1033,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1055,7 +1076,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -1070,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1090,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1110,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1121,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1144,7 +1165,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,7 +1182,7 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1178,46 +1199,106 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>110</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>60</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>90</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43"/>
       <c r="D43" s="6"/>
     </row>

--- a/data/aid.xlsx
+++ b/data/aid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C061A786-0EAA-0E4C-903D-22D6CEF5B82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCC533-2DFA-404B-ACAA-79AFC540C302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Qty</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>One day's worth of pure water.</t>
-  </si>
-  <si>
     <t>Psycho</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Med-X</t>
   </si>
   <si>
-    <t>¼</t>
-  </si>
-  <si>
     <t>Inject as an action.  For one hour, immediately after becoming Shaken, make a Spirit roll to remove Shaken.  Stacks duration.  Very addictive.</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Hydra</t>
   </si>
   <si>
-    <t>⅒</t>
-  </si>
-  <si>
     <t>Stimpak</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>Salty and bland, but packed with protein.  Counts as one day's food.  Can be eaten raw or further cooked</t>
   </si>
   <si>
-    <t>½</t>
-  </si>
-  <si>
     <t>Requires cooking.  Counts as 1/2 day's food. Tough meat and very bitter.</t>
   </si>
   <si>
@@ -224,13 +212,37 @@
   </si>
   <si>
     <t>Fancy Lads</t>
+  </si>
+  <si>
+    <t>Value/Serving</t>
+  </si>
+  <si>
+    <t>Nuka Cola</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A sweet and sugary drink.  One day's worth water.  +1 to vigor rolls to stay awake.  You can keep the bottlecap!</t>
+  </si>
+  <si>
+    <t>Water Canteen</t>
+  </si>
+  <si>
+    <t>Carries up to 2 days of fresh water.</t>
+  </si>
+  <si>
+    <t>One day of pure water.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,14 +280,6 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -319,7 +323,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -339,7 +343,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,22 +711,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="123.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="123.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -726,19 +736,22 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -746,36 +759,38 @@
       <c r="C2" s="5">
         <v>25</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -783,16 +798,17 @@
       <c r="C4" s="5">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -800,16 +816,17 @@
       <c r="C5" s="5">
         <v>20</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -817,19 +834,20 @@
       <c r="C6" s="5">
         <v>250</v>
       </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -837,19 +855,20 @@
       <c r="C7" s="5">
         <v>55</v>
       </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -857,16 +876,16 @@
       <c r="C8" s="3">
         <v>80</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -874,19 +893,19 @@
       <c r="C9" s="3">
         <v>400</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -894,19 +913,20 @@
       <c r="C10" s="5">
         <v>1500</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="5"/>
+      <c r="E10" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -914,39 +934,59 @@
       <c r="C11" s="5">
         <v>1000</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -954,19 +994,20 @@
       <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -974,20 +1015,21 @@
       <c r="C15" s="5">
         <v>20</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="7" t="str">
-        <f>F14</f>
+      <c r="G15" s="7" t="str">
+        <f>G14</f>
         <v>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -995,312 +1037,343 @@
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="str">
-        <f>F14</f>
+      <c r="G16" s="7" t="str">
+        <f>G14</f>
         <v>Drink as an action. | Effects: +1 Spirit, -1 Agility, -1 Smarts for 1 hour. | Alcohol stacks up to x2, then adds +1 hour per additional dose. | Hangover: -1 Spirit, -1 Smarts for (2x dose - vigor roll) hours. | Addictive.</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>25</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>36</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <f>D27*F27</f>
+        <v>390</v>
+      </c>
+      <c r="D27" s="3">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <f>D28*F28</f>
+        <v>550</v>
+      </c>
+      <c r="D28" s="3">
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <f>D29*F29</f>
+        <v>540</v>
+      </c>
+      <c r="D29" s="3">
+        <v>30</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="5">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <f>D30*F30</f>
+        <v>450</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="5">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
-        <v>8</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>36</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="5">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>65</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>110</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>60</v>
-      </c>
-      <c r="D32" s="5">
-        <v>2</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3">
-        <v>90</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B42"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43"/>
-      <c r="D43" s="6"/>
+      <c r="E40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1324,7 +1397,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3">
         <v>0</v>
@@ -1334,7 +1407,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -1344,7 +1417,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1354,7 +1427,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1364,7 +1437,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1374,7 +1447,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1384,7 +1457,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1394,7 +1467,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1404,7 +1477,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1414,7 +1487,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1424,7 +1497,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>

--- a/data/aid.xlsx
+++ b/data/aid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCC533-2DFA-404B-ACAA-79AFC540C302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF88E62-51EF-5444-BE31-33AFFAE357CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8800" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Qty</t>
   </si>
@@ -233,6 +235,21 @@
   </si>
   <si>
     <t>One day of pure water.</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/fbg3m8wzheb41.png</t>
+  </si>
+  <si>
+    <t>Sodium Pentothal</t>
+  </si>
+  <si>
+    <t>Blue Bawlz</t>
+  </si>
+  <si>
+    <t>Inject as an action.  Make medicine roll. | Success: -4 penalty to Spirit and Smarts and related skills.  Penalty reduced by 1 per 4 hours. | Raise: As success, but -6 penalty. | Failure: Random underdose (1d4 penalty) or overdose (subject is unconcious for 2d6 hours)</t>
+  </si>
+  <si>
+    <t>Drink as an action. | Effects: +2 Spirit, +1 Vigor (4h). | Hangover: -1 Spirit, -1 Vigor (4h). | Gain one free soak roll the next time you take energy damage or until effect wears off.</t>
   </si>
 </sst>
 </file>
@@ -242,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +299,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,7 +326,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -322,8 +348,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -352,8 +379,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="21"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -374,6 +405,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -714,7 +746,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>20</v>
@@ -950,7 +982,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5">
         <v>50</v>
@@ -1186,8 +1218,8 @@
       <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="10">
-        <v>0.5</v>
+      <c r="E24" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="G24" t="s">
         <v>48</v>
@@ -1232,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3">
         <f>D27*F27</f>
@@ -1256,7 +1288,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
         <f>D28*F28</f>
@@ -1280,7 +1312,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3">
         <f>D29*F29</f>
@@ -1304,7 +1336,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3">
         <f>D30*F30</f>
@@ -1313,10 +1345,10 @@
       <c r="D30" s="3">
         <v>45</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="13">
         <v>10</v>
       </c>
       <c r="G30" t="s">
@@ -1328,7 +1360,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3">
         <v>20</v>
@@ -1336,46 +1368,83 @@
       <c r="D31" s="3">
         <v>2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="13">
         <v>1</v>
       </c>
+      <c r="F31" s="13"/>
       <c r="G31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+      <c r="E33" s="13">
+        <v>3</v>
+      </c>
+      <c r="F33" s="13">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40"/>
       <c r="E40" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1" xr:uid="{E52296EF-B97D-064D-971C-FEF97A72DFA0}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
